--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value387.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value387.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.135045785724168</v>
+        <v>2.51144003868103</v>
       </c>
       <c r="B1">
-        <v>1.641374489195471</v>
+        <v>3.165001392364502</v>
       </c>
       <c r="C1">
-        <v>1.808096065665795</v>
+        <v>2.664785385131836</v>
       </c>
       <c r="D1">
-        <v>2.102514932304596</v>
+        <v>2.055957555770874</v>
       </c>
       <c r="E1">
-        <v>2.454884299474329</v>
+        <v>1.253536820411682</v>
       </c>
     </row>
   </sheetData>
